--- a/convertextract/cors/correspondence_spreadsheets/heiltsuk_doulos.xlsx
+++ b/convertextract/cors/correspondence_spreadsheets/heiltsuk_doulos.xlsx
@@ -1,327 +1,256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>p</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+  <si>
+    <t>¹</t>
   </si>
   <si>
     <t>p̓</t>
   </si>
   <si>
-    <t>m</t>
+    <t>¡</t>
   </si>
   <si>
     <t>ṃ́</t>
   </si>
   <si>
+    <t>™</t>
+  </si>
+  <si>
     <t>ṃ</t>
   </si>
   <si>
+    <t>µ</t>
+  </si>
+  <si>
     <t>m̓</t>
   </si>
   <si>
+    <t>²</t>
+  </si>
+  <si>
     <t>ṃ̓</t>
   </si>
   <si>
-    <t>d</t>
+    <t>†</t>
   </si>
   <si>
     <t>t̓</t>
   </si>
   <si>
-    <t>n</t>
+    <t>¢</t>
   </si>
   <si>
     <t>ṇ́</t>
   </si>
   <si>
+    <t>Þ</t>
+  </si>
+  <si>
     <t>ṇ</t>
   </si>
   <si>
+    <t>ñ</t>
+  </si>
+  <si>
     <t>n̓</t>
   </si>
   <si>
+    <t>¦</t>
+  </si>
+  <si>
     <t>ṇ̓</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>ç</t>
   </si>
   <si>
     <t>c̓</t>
   </si>
   <si>
-    <t>s</t>
+    <t>ß</t>
   </si>
   <si>
     <t>λ</t>
   </si>
   <si>
+    <t>Ò</t>
+  </si>
+  <si>
     <t>ƛ</t>
   </si>
   <si>
+    <t>ƒ</t>
+  </si>
+  <si>
     <t>ƛ̓</t>
   </si>
   <si>
+    <t>æ</t>
+  </si>
+  <si>
     <t>ɫ</t>
   </si>
   <si>
-    <t>l</t>
+    <t>Æ</t>
+  </si>
+  <si>
+    <t>Ɫ</t>
+  </si>
+  <si>
+    <t>ø</t>
+  </si>
+  <si>
+    <t>ḷ́</t>
+  </si>
+  <si>
+    <t>ª</t>
   </si>
   <si>
     <t>ḷ</t>
   </si>
   <si>
-    <t>ḷ́</t>
+    <t>¬</t>
   </si>
   <si>
     <t>l̓</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>ḷ̓</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>k</t>
+    <t>ð</t>
   </si>
   <si>
     <t>k̓</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>í</t>
   </si>
   <si>
     <t>í</t>
   </si>
   <si>
+    <t>¥</t>
+  </si>
+  <si>
     <t>y̓</t>
   </si>
   <si>
+    <t>î</t>
+  </si>
+  <si>
     <t>i̓</t>
   </si>
   <si>
-    <t>gv</t>
-  </si>
-  <si>
-    <t>kv</t>
+    <t>ðv</t>
   </si>
   <si>
     <t>k̓v</t>
   </si>
   <si>
-    <t>xv</t>
-  </si>
-  <si>
-    <t>w</t>
+    <t>ú</t>
   </si>
   <si>
     <t>ú</t>
   </si>
   <si>
+    <t>„</t>
+  </si>
+  <si>
     <t>w̓</t>
   </si>
   <si>
+    <t>ü</t>
+  </si>
+  <si>
     <t>u̓</t>
   </si>
   <si>
+    <t>©v</t>
+  </si>
+  <si>
     <t>ǧv</t>
   </si>
   <si>
-    <t>qv</t>
+    <t>œv</t>
   </si>
   <si>
     <t>q̓v</t>
   </si>
   <si>
+    <t>þv</t>
+  </si>
+  <si>
     <t>x̌v</t>
   </si>
   <si>
+    <t>©</t>
+  </si>
+  <si>
     <t>ǧ</t>
   </si>
   <si>
-    <t>q</t>
+    <t>œ</t>
   </si>
   <si>
     <t>q̓</t>
   </si>
   <si>
+    <t>þ</t>
+  </si>
+  <si>
     <t>x̌</t>
   </si>
   <si>
-    <t>h</t>
+    <t>á</t>
   </si>
   <si>
     <t>á</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Ó</t>
   </si>
   <si>
     <t>h̓</t>
   </si>
   <si>
+    <t>å</t>
+  </si>
+  <si>
     <t>a̓</t>
   </si>
   <si>
+    <t>Ô</t>
+  </si>
+  <si>
     <t>ħ</t>
   </si>
   <si>
+    <t>‰</t>
+  </si>
+  <si>
     <t>ʔ</t>
   </si>
   <si>
-    <t>á</t>
-  </si>
-  <si>
-    <t>ð</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>œ</t>
-  </si>
-  <si>
-    <t>í</t>
-  </si>
-  <si>
-    <t>þ</t>
-  </si>
-  <si>
-    <t>Þ</t>
-  </si>
-  <si>
-    <t>ª</t>
-  </si>
-  <si>
-    <t>‰</t>
-  </si>
-  <si>
-    <t>ç</t>
-  </si>
-  <si>
-    <t>æ</t>
-  </si>
-  <si>
-    <t>Ò</t>
-  </si>
-  <si>
-    <t>¦</t>
-  </si>
-  <si>
-    <t>„</t>
-  </si>
-  <si>
-    <t>ø</t>
-  </si>
-  <si>
-    <t>©</t>
-  </si>
-  <si>
-    <t>ß</t>
-  </si>
-  <si>
-    <t>™</t>
-  </si>
-  <si>
-    <t>î</t>
-  </si>
-  <si>
-    <t>ñ</t>
-  </si>
-  <si>
-    <t>ƒ</t>
-  </si>
-  <si>
-    <t>†</t>
-  </si>
-  <si>
-    <t>Ô</t>
-  </si>
-  <si>
-    <t>µ</t>
-  </si>
-  <si>
-    <t>¹</t>
-  </si>
-  <si>
-    <t>ðv</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>©v</t>
-  </si>
-  <si>
-    <t>þv</t>
-  </si>
-  <si>
-    <t>Ó</t>
-  </si>
-  <si>
-    <t>å</t>
-  </si>
-  <si>
-    <t>œv</t>
-  </si>
-  <si>
-    <t>ü</t>
-  </si>
-  <si>
-    <t>¢</t>
-  </si>
-  <si>
-    <t>¡</t>
-  </si>
-  <si>
-    <t>ú</t>
-  </si>
-  <si>
-    <t>¥</t>
-  </si>
-  <si>
-    <t>¬</t>
-  </si>
-  <si>
-    <t>²</t>
-  </si>
-  <si>
     <t>ÿx</t>
-  </si>
-  <si>
-    <t>Æ</t>
-  </si>
-  <si>
-    <t>Ɫ</t>
   </si>
   <si>
     <t>ÿX</t>
@@ -401,7 +330,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,44 +353,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -489,31 +418,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -541,23 +453,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,151 +464,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,531 +642,354 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>39</v>
+      <c r="A41" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" t="s">
-        <v>107</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>